--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_4_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_4_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2495340.525160309</v>
+        <v>-2497577.221577358</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3378326.849234222</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16558712.03982301</v>
+        <v>16585510.89891386</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>56.43556171944203</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>130.6049775687648</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>407.7277820848036</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.93483458263997</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -862,19 +862,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V4" t="n">
-        <v>127.004412707233</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>328.5691721741686</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09300973225714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.35153719005459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>165.8404403681495</v>
       </c>
       <c r="T8" t="n">
-        <v>160.8783715448855</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.91242278797893</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>39.11561436815781</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0314030821032</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>127.432156783133</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274054</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E25" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789822</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463124</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415201</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S25" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T25" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329096</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463274</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T28" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U28" t="n">
         <v>218.1054622689367</v>
@@ -2776,7 +2776,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y28" t="n">
         <v>150.4527632224541</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689375</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3013,7 +3013,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y31" t="n">
         <v>150.4527632224541</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463153</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539627</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>369.7269345550493</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310006</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,7 +3478,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3509,19 +3509,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572815</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124557</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145482</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>239.23670158702</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797666</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433873</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572827</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124557</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870202</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704447</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128497</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870202</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1304.715620926127</v>
+        <v>544.1329001935441</v>
       </c>
       <c r="C2" t="n">
-        <v>1304.715620926127</v>
+        <v>544.1329001935441</v>
       </c>
       <c r="D2" t="n">
-        <v>946.4499223193766</v>
+        <v>185.8672015867935</v>
       </c>
       <c r="E2" t="n">
-        <v>946.4499223193766</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>946.4499223193766</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1691.315460990249</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4398,16 +4398,16 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>266.2060027641987</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4510,16 +4510,16 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>182.2302673832261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1718.957088916128</v>
       </c>
     </row>
     <row r="6">
@@ -4744,28 +4744,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>76.52029211334889</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2474.604805217251</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.439508261991</v>
+        <v>2474.604805217251</v>
       </c>
       <c r="U8" t="n">
-        <v>2049.677722900083</v>
+        <v>2220.843019855343</v>
       </c>
       <c r="V8" t="n">
-        <v>1718.614835556512</v>
+        <v>1889.780132511772</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.614835556512</v>
+        <v>1537.011477241658</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>1537.011477241658</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4857,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641987</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4984,25 +4984,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951864</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951864</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5030,16 +5030,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514088</v>
@@ -5048,19 +5048,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5255,37 +5255,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,19 +5358,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141287</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678161</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5476,10 +5476,10 @@
         <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,13 +5531,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F18" t="n">
         <v>358.2718071316295</v>
@@ -5589,22 +5589,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141288</v>
+        <v>841.8631140141287</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.725741678162</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
         <v>1797.533454227377</v>
@@ -5628,7 +5628,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1348.33044553573</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1124.545030325236</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>835.416391538794</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341678</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141297</v>
+        <v>841.8631140141287</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678163</v>
+        <v>1171.725741678161</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5865,7 +5865,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247869</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247869</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823719</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514023</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795201</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256437</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277041</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341689</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141313</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678165</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227376</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6102,7 +6102,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108357</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229698</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506752</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083232</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504539</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103156</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254962</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.84894686497</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M25" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N25" t="n">
-        <v>1386.86094111639</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O25" t="n">
-        <v>1688.186490350131</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P25" t="n">
-        <v>1932.236826184158</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384659</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R25" t="n">
-        <v>1996.265827986525</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S25" t="n">
-        <v>1865.165908942119</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T25" t="n">
-        <v>1710.200584771665</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025265</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859419</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
-        <v>1083.4305608625</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045233</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010343</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6318,13 +6318,13 @@
         <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108341</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229683</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506738</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083218</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504525</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103143</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982987</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6385,10 +6385,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,31 +6403,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S28" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T28" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V28" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045217</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010327</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,40 +6452,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N30" t="n">
         <v>1171.725741678162</v>
@@ -6558,7 +6558,7 @@
         <v>1841.189502980821</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6652,19 +6652,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6792,10 +6792,10 @@
         <v>1171.725741678162</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6844,13 +6844,13 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,16 +6889,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010317</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.518533956031</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.55601701562</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1618.290318408869</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1244.828768353264</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>833.8428635636562</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>417.7170890286144</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>109.3461303303137</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>283.0784825878072</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>806.4813411568369</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1508.085497200635</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2305.361850920526</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3100.906972024557</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3806.930033048752</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4371.829998304555</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4718.824586613258</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4643.758424636692</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4433.169749547296</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4179.55500687073</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3848.492119527159</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3495.723464257045</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3122.257705995965</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2732.118374020153</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>985.7752020406868</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>811.3221727595599</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>662.3877630983086</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>503.150308092853</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>356.615750119738</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>219.6890717239233</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>123.744198155611</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>137.052111613752</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>286.1217958158119</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>532.8869237222759</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>840.2070570022377</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1170.06968466627</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>1795.877397215486</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P36" t="n">
-        <v>2316.178018951233</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2611.287436266947</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>2621.917448364247</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>2482.011343448021</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>2287.096727371799</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>2058.991802991186</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1823.839694759443</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>1569.602338031242</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>1361.750837825709</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>1153.990539060755</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>657.8041820989416</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>557.6880902110757</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>476.3915418387811</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>397.298539296429</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>319.2286828385597</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>219.8734521984215</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>138.2755347864058</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>175.3942981406486</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>393.0302736136042</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>708.1928898530778</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
-        <v>1047.210203848605</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1385.204884104497</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1686.530433338238</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1930.580769172265</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2036.864783372765</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1994.609770974631</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1863.509851930225</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1708.544527759771</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1488.235980013371</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1302.371582847525</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1081.774503850605</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>922.6050439926292</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>770.6325558891401</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>1622.425187676631</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215055</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416719</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774094</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430896</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1088.893283004706</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>1622.425187676631</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973199</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161929</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549417</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494862</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763712</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320245</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215057</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>667.028617841672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774095</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430897</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932525</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160448</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477366</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.713999703672</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.293752345675</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>1622.42518767663</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160446</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829558</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122056</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195773</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>349.7653003338573</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970648</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>349.7653003338573</v>
       </c>
       <c r="O18" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>349.7653003338552</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720665</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9723,16 +9723,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>188.8856946302411</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7653003338518</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>349.7653003338571</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>274.3657496970644</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929765</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929765</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>87.13015700775048</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>19.79750571619297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.798708171485</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>165.9802687929765</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>19.79750571619286</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>165.9802687929765</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>19.79750571619206</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>274.3657496970644</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>251.325392503497</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>6.056387935991391</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V4" t="n">
-        <v>125.133230616595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>158.8051956154454</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>40.67825230693396</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338589</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>124.705486540695</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.631006536525272e-12</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.456612608308205e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1464686.396117235</v>
+        <v>1465338.849124223</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1450707.559974104</v>
+        <v>1465338.849124223</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1450707.559974104</v>
+        <v>1465338.849124223</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1450707.559974104</v>
+        <v>1465338.849124223</v>
       </c>
     </row>
   </sheetData>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371322</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925918</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>216643.6227495943</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125767.3623801284</v>
+        <v>125767.3623801285</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
@@ -26427,37 +26427,37 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="I4" t="n">
-        <v>51722.33279362273</v>
+        <v>51722.33279362283</v>
       </c>
       <c r="J4" t="n">
-        <v>51722.33279362281</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="K4" t="n">
-        <v>51722.33279362282</v>
+        <v>51722.33279362283</v>
       </c>
       <c r="L4" t="n">
         <v>51722.33279362282</v>
       </c>
       <c r="M4" t="n">
-        <v>54709.97259871803</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="N4" t="n">
-        <v>30134.53761950703</v>
+        <v>51722.33279362277</v>
       </c>
       <c r="O4" t="n">
-        <v>30134.53761950703</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="L5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="M5" t="n">
-        <v>96456.5024909879</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>100332.6710141021</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="O5" t="n">
-        <v>100332.6710141021</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>100332.6710141021</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-798594.3196580824</v>
+        <v>-798807.7316479611</v>
       </c>
       <c r="C6" t="n">
         <v>-257349.8553852357</v>
       </c>
       <c r="D6" t="n">
-        <v>-257349.8553852356</v>
+        <v>-257349.8553852357</v>
       </c>
       <c r="E6" t="n">
-        <v>-646450.9079779149</v>
+        <v>-646548.367103887</v>
       </c>
       <c r="F6" t="n">
-        <v>-121290.871501019</v>
+        <v>-121388.3306269911</v>
       </c>
       <c r="G6" t="n">
-        <v>-121290.8715010189</v>
+        <v>-121388.3306269912</v>
       </c>
       <c r="H6" t="n">
-        <v>-121290.871501019</v>
+        <v>-121388.3306269912</v>
       </c>
       <c r="I6" t="n">
-        <v>-203942.9507173614</v>
+        <v>-203942.9507173608</v>
       </c>
       <c r="J6" t="n">
-        <v>-325860.65780624</v>
+        <v>-325860.6578062411</v>
       </c>
       <c r="K6" t="n">
         <v>-149437.4386136482</v>
@@ -26552,16 +26552,16 @@
         <v>-149437.4386136482</v>
       </c>
       <c r="M6" t="n">
-        <v>-280808.7899286507</v>
+        <v>-284238.4538474854</v>
       </c>
       <c r="N6" t="n">
-        <v>-347110.8313832034</v>
+        <v>-203942.9507173607</v>
       </c>
       <c r="O6" t="n">
-        <v>-130467.2086336091</v>
+        <v>-149437.4386136482</v>
       </c>
       <c r="P6" t="n">
-        <v>-130467.2086336092</v>
+        <v>-149437.4386136482</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964071</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964071</v>
+      </c>
+      <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859252</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859251</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26747,16 +26747,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541001</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.737118579826711e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>259.394295139198</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>326.2982799440385</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>360.3031040734136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>54.16466948931196</v>
       </c>
       <c r="C5" t="n">
-        <v>348.1798820387504</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.9968953246364</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.2331161620402</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>8.575272440822005</v>
       </c>
       <c r="T8" t="n">
-        <v>55.56994881277231</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>270.6105755486121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>12.20343551721248</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859252</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304449</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298637</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336905</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>632.1290025749654</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>481.4591646285895</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>682.9598737318701</v>
       </c>
       <c r="O18" t="n">
-        <v>632.1290025749652</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -35984,7 +35984,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490677</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879394</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>632.1290025749637</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.556183571462</v>
+        <v>492.1965505854582</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686871</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556559</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415011</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490697</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879397</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504671</v>
+        <v>499.3100716807073</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980136</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714625</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686883</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520638</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K25" t="n">
-        <v>219.8343186595515</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L25" t="n">
-        <v>318.3460770095696</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M25" t="n">
-        <v>342.4417313086136</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N25" t="n">
-        <v>341.4087679352447</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502439</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414417</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.3575901015156</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>632.1290025749652</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L28" t="n">
         <v>318.3460770095692</v>
@@ -36765,13 +36765,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36850,7 +36850,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349808</v>
@@ -36926,10 +36926,10 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>481.459164628589</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686864</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>189.4115637771847</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>558.7186215464197</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109146</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>475.387620108525</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165874</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>558.7186215464188</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
